--- a/biology/Médecine/Carl_Wilhelm_Boeck/Carl_Wilhelm_Boeck.xlsx
+++ b/biology/Médecine/Carl_Wilhelm_Boeck/Carl_Wilhelm_Boeck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Wilhelm Boeck, né le 15 décembre 1808 à Kongsberg et mort le 10 décembre 1875 à Christiania, est un médecin et dermatologue norvégien. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de médecine en 1831 de l'Université de Christiania, docteur à l'hôpital de Christiania de 1836 à 1848, praticien à Kongsberg (1833-1846), il devient en 1851 professeur à la faculté de médecine[1]. Boeck étudie la gale dès 1848 et effectue des recherches sur l’éléphantiasis et la syphilis[2]. Il travaille ensuite pour l'Hôpital national norvégien de 1850 à 1875[3]. 
-Il est aussi élu au parlement de Kongsberg en 1845[4]. 
-Jules Verne le mentionne dans son roman Un billet de loterie (chapitre X)[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de médecine en 1831 de l'Université de Christiania, docteur à l'hôpital de Christiania de 1836 à 1848, praticien à Kongsberg (1833-1846), il devient en 1851 professeur à la faculté de médecine. Boeck étudie la gale dès 1848 et effectue des recherches sur l’éléphantiasis et la syphilis. Il travaille ensuite pour l'Hôpital national norvégien de 1850 à 1875. 
+Il est aussi élu au parlement de Kongsberg en 1845. 
+Jules Verne le mentionne dans son roman Un billet de loterie (chapitre X). 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1847 : Om spedalskhed, avec Daniel Cornelius Danielssen
 1853 : Syphilisationsforsøg
